--- a/medicine/Enfance/Kyōko_Kishida/Kyōko_Kishida.xlsx
+++ b/medicine/Enfance/Kyōko_Kishida/Kyōko_Kishida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ky%C5%8Dko_Kishida</t>
+          <t>Kyōko_Kishida</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kyōko Kishida (岸田今日子, Kishida Kyōko?), née le 29 avril 1930 et morte le 17 décembre 2006, est une actrice japonaise et écrivain de livres pour enfants.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ky%C5%8Dko_Kishida</t>
+          <t>Kyōko_Kishida</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kyōko Kishida est la seconde fille de l'écrivain Kunio Kishida, sa sœur aînée est la poétesse Eriko Kishida (ja) et l'acteur Shin Kishida est son cousin[2]. Elle a été mariée à l'acteur Noboru Nakaya (ja) de 1954 à 1978, date de leur divorce[2],[1].
-En 1950, alors âgée de vingt ans, Kyōko Kishida rejoint la compagnie de théâtre Bungaku-za fondée par son père et se fait remarquer en 1960 dans le rôle de Salomé, dans une adaptation par Yukio Mishima de la tragédie d'Oscar Wilde[2].
-Au cinéma, elle tient son premier rôle significatif dans Tendre et folle adolescence de Kon Ichikawa en 1960, la première de ses douze collaborations avec le réalisateur. On la retrouve aussi dans le 3e volet de La Condition de l'homme (1961) de Masaki Kobayashi, dans les Contes cruels du Bushido de Tadashi Imai (1963) ainsi que dans le dernier film de Yasujirō Ozu, Le Goût du saké (1962)[2].
-Kyōko Kishida tient les premiers rôles en 1964, dans La Femme des sables de Hiroshi Teshigahara et dans Passion de Yasuzō Masumura[2]. Elle tourne dans près de 80 films entre 1956 et 2006[3]. Elle meurt le 17 décembre 2006 à Tokyo, des suites d'une tumeur au cerveau, à l'âge de 76 ans[2],[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kyōko Kishida est la seconde fille de l'écrivain Kunio Kishida, sa sœur aînée est la poétesse Eriko Kishida (ja) et l'acteur Shin Kishida est son cousin. Elle a été mariée à l'acteur Noboru Nakaya (ja) de 1954 à 1978, date de leur divorce,.
+En 1950, alors âgée de vingt ans, Kyōko Kishida rejoint la compagnie de théâtre Bungaku-za fondée par son père et se fait remarquer en 1960 dans le rôle de Salomé, dans une adaptation par Yukio Mishima de la tragédie d'Oscar Wilde.
+Au cinéma, elle tient son premier rôle significatif dans Tendre et folle adolescence de Kon Ichikawa en 1960, la première de ses douze collaborations avec le réalisateur. On la retrouve aussi dans le 3e volet de La Condition de l'homme (1961) de Masaki Kobayashi, dans les Contes cruels du Bushido de Tadashi Imai (1963) ainsi que dans le dernier film de Yasujirō Ozu, Le Goût du saké (1962).
+Kyōko Kishida tient les premiers rôles en 1964, dans La Femme des sables de Hiroshi Teshigahara et dans Passion de Yasuzō Masumura. Elle tourne dans près de 80 films entre 1956 et 2006. Elle meurt le 17 décembre 2006 à Tokyo, des suites d'une tumeur au cerveau, à l'âge de 76 ans,.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ky%C5%8Dko_Kishida</t>
+          <t>Kyōko_Kishida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cinéma
-Années 1950
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1956 : Hanayome no tameiki (花嫁のため息?) de Keigo Kimura : Fumiko
 1958 : Un homme audacieux (不敵な男, Futeki na otoko?) de Yasuzō Masumura : Sakie
 1958 : Kyōkatsu (恐喝?) de Kōzō Saeki
@@ -556,7 +579,47 @@
 1959 : Gurama-tō no yūwaku (グラマ島の誘惑?) de Yūzō Kawashima : Sumiko Tsuboi
 1959 : Fubuki to tomo ni kieyukinu (吹雪と共に消えゆきぬ?) de Keigo Kimura
 1959 : Pèlerinage nocturne (暗夜行路, An'ya kōro?) de Shirō Toyoda : une prostituée
-Années 1960
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kyōko_Kishida</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ky%C5%8Dko_Kishida</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Années 1960</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1960 : Histoire singulière à l'est du fleuve (濹東綺譚, Bokutō kitan?) de Shirō Toyoda : Teruko
 1960 : Nami no tō (波の搭?) de Noboru Nakamura
 1960 : Tendre et folle adolescence (おとうと, Otōto?) de Kon Ichikawa : Mme Tanuma
@@ -590,7 +653,47 @@
 1967 : Ō-oku maruhi monogatari (大奥（秘）物語?) de Sadao Nakajima
 1968 : Le Moment du doute (不信のとき, Fushin no toki?) de Tadashi Imai : Chizuko Mochizuki
 1969 : Corps féminins (女体, Jotai?) de Yasuzō Masumura : Akie
-Années 1970
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kyōko_Kishida</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ky%C5%8Dko_Kishida</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Années 1970</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1970 : La Guerre et les Hommes I (戦争と人間 第一部 運命の序曲, Sensō to nigen I: Unmei no jokyoku?) de Satsuo Yamamoto
 1971 : Une femme nommée En (婉という女, En toiu onna?) de Tadashi Imai
 1971 : La Guerre et les Hommes II (戦争と人間 第二部 愛と悲しみの山河, Sensō to ningen II: Ai to kanashimino sanga?) de Satsuo Yamamoto
@@ -604,7 +707,47 @@
 1978 : Inubue (犬笛?) de Sadao Nakajima : narratrice
 1979 : L'Enfer (地獄, Jigoku?) de Tatsumi Kumashiro : Shima Ikegata
 1979 : Nichiren (日蓮?) de Noboru Nakamura : Umegiku
-Années 1980
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kyōko_Kishida</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ky%C5%8Dko_Kishida</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Années 1980</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1980 : Terra e... (地球へ...?) de Hideo Onchi : grand-mère (voix)
 1982 : Félicitations pour les sept ans de cet enfant (この子の七つのお祝に, Kono ko no nanatsu no oiwai ni?) de Yasuzō Masumura : Mayumi
 1983 : Tantei monogatari (探偵物語?) de Kichitarō Negishi : Kimie Hasenuma
@@ -620,7 +763,47 @@
 1987 : La Princesse de la lune (竹取物語, Taketori monogatari?) de Kon Ichikawa : Kougo
 1988 : La Grue (つる 鶴, Tsuru?) de Kon Ichikawa : Kichibi
 1989 : Rikyu (利休?) de Hiroshi Teshigahara : Nene
-Années 1990
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kyōko_Kishida</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ky%C5%8Dko_Kishida</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Années 1990</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1990 : Ten to chi to (天と地と?) de Haruki Kadokawa : dame d'honneur
 1991 : L'Affaire du meurtre de la légende de Tenga (天河伝説殺人事件, Tenkawa densetsu satsujin jiken?) de Kon Ichikawa : Natsu Minakami
 1991 : Zodiac Killers (極道追踪) d'Ann Hui : Geisha Miyako
@@ -628,7 +811,47 @@
 1996 : Gakkō no kaidan 2 (学校の怪談２?) de Hideyuki Hirayama : maîtresse d'école
 1996 : Le Village aux huit tombes (八つ墓村, Yatsu haka mura?) de Kon Ichikawa : Kotake et Koume Tajimi (deux rôles)
 1997 : Aimer (愛する, Aisuru?) de Kei Kumai : Taeko Kano
-Années 2000
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kyōko_Kishida</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ky%C5%8Dko_Kishida</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 2000 : Shinsengumi (新選組, Shinsengumi?) de Kon Ichikawa : Komano (voix)
 2000 : Dora-heita (どら平太?) de Kon Ichikawa
 2001 : Ningen no kuzu (人間の屑?) de Takehiko Nakajima : Okami
@@ -638,15 +861,90 @@
 2005 : Spring Snow (春の雪, Haru no yuki?) d'Isao Yukisada : grand-mère de Kiyoaki
 2005 : Onaji tsuki o miteiru (同じ月を見ている?) de Kenta Fukasaku
 2006 : Wool 100% (ウール100%?) de Mai Tominaga : Ume
-Courts-métrages
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Kyōko_Kishida</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ky%C5%8Dko_Kishida</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Courts-métrages</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1956 : Niizuma no negoto (新妻の寝ごと?) de Keigo Kimura
 1971 : Mūmin
 1972 : Mūmin
 1976 : Are wa dare?
 1978 : Risu no panashi
 2003 : Jours d'hiver
-Télévision
-Séries télévisées
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Kyōko_Kishida</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ky%C5%8Dko_Kishida</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Séries télévisées</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1964 : Cinépanorama : elle-même
 1966 : Doyō danwashitsu : elle-même
 1969 : Mūmin : Moomin (voix)
@@ -671,7 +969,47 @@
 2003 : Boku no mahō tsukai
 2003 : Dōbutsu no oisha-san : Taka Nishine
 2004 : Lone Wolf and Cub : narratrice
-Téléfilms
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Kyōko_Kishida</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ky%C5%8Dko_Kishida</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Téléfilms</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1982 : Rirakkusu: Matsubara Katsumi no nichijō seikatsu : Mme Udagawa
 1983 : Mazakon-keiji no jikenbo
 1986 : Fujiko Fujio no Yume Camera
@@ -686,31 +1024,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ky%C5%8Dko_Kishida</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ky%C5%8Dko_Kishida</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kyōko_Kishida</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ky%C5%8Dko_Kishida</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Doublage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>1962 : Human Zoo de Yōji Kuri (voix - film d'animation)
 1964 : Love de Yōji Kuri (voix - film d'animation)
@@ -721,64 +1061,137 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ky%C5%8Dko_Kishida</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ky%C5%8Dko_Kishida</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Kyōko_Kishida</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ky%C5%8Dko_Kishida</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ky%C5%8Dko_Kishida</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ky%C5%8Dko_Kishida</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Kyōko_Kishida</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ky%C5%8Dko_Kishida</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
-Décoration
-Récipiendaire de la médaille au ruban pourpre en 1994
-Récompenses
-1963 : prix Blue Ribbons de la meilleure actrice dans un second rôle pour Le Serment rompu et Le Goût du saké[4]
-1963 : prix Mainichi de la meilleure actrice dans un second rôle pour Le Secret du ninja, Le Serment rompu et Le Goût du saké[5]</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kyōko_Kishida</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ky%C5%8Dko_Kishida</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Décoration</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Récipiendaire de la médaille au ruban pourpre en 1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Kyōko_Kishida</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ky%C5%8Dko_Kishida</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1963 : prix Blue Ribbons de la meilleure actrice dans un second rôle pour Le Serment rompu et Le Goût du saké
+1963 : prix Mainichi de la meilleure actrice dans un second rôle pour Le Secret du ninja, Le Serment rompu et Le Goût du saké</t>
         </is>
       </c>
     </row>
